--- a/posesiones/1479707.xlsx
+++ b/posesiones/1479707.xlsx
@@ -1823,10 +1823,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1917,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1967,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2061,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2108,7 +2108,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R9">
         <v>19</v>
@@ -2161,7 +2161,7 @@
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R10">
         <v>16</v>
@@ -2214,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2264,7 +2264,7 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R12">
         <v>15</v>
@@ -2317,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2367,7 +2367,7 @@
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R14">
         <v>11</v>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2470,7 +2470,7 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R16">
         <v>14</v>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2570,7 +2570,7 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R18">
         <v>17</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2673,7 +2673,7 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R20">
         <v>19</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2776,7 +2776,7 @@
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R22">
         <v>13</v>
@@ -2829,7 +2829,7 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R23">
         <v>17</v>
@@ -2879,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -2973,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3023,7 +3023,7 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R27">
         <v>33</v>
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3123,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3170,7 +3170,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3220,7 +3220,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3270,7 +3270,7 @@
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R32">
         <v>32</v>
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3370,7 +3370,7 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R34">
         <v>15</v>
@@ -3423,7 +3423,7 @@
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R35">
         <v>14</v>
@@ -3473,7 +3473,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3567,7 +3567,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3617,7 +3617,7 @@
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R39">
         <v>0</v>
@@ -3670,7 +3670,7 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R40">
         <v>20</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3770,7 +3770,7 @@
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R42">
         <v>22</v>
@@ -3820,7 +3820,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3870,7 +3870,7 @@
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R44">
         <v>21</v>
@@ -3923,7 +3923,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -3973,7 +3973,7 @@
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R46">
         <v>20</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4076,7 +4076,7 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R48">
         <v>6</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4176,7 +4176,7 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R50">
         <v>24</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4276,7 +4276,7 @@
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R52">
         <v>9</v>
@@ -4329,7 +4329,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4376,7 +4376,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4423,7 +4423,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4470,7 +4470,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4517,7 +4517,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4564,7 +4564,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4614,7 +4614,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4664,7 +4664,7 @@
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R60">
         <v>24</v>
@@ -4717,7 +4717,7 @@
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R61">
         <v>9</v>
@@ -4767,7 +4767,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4817,7 +4817,7 @@
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R63">
         <v>17</v>
@@ -4867,7 +4867,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4917,7 +4917,7 @@
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R65">
         <v>4</v>
@@ -4967,7 +4967,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5014,7 +5014,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5061,7 +5061,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5108,7 +5108,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5155,7 +5155,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5202,7 +5202,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5249,7 +5249,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5299,7 +5299,7 @@
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R73">
         <v>0</v>
@@ -5349,7 +5349,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5396,7 +5396,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R76">
         <v>22</v>
@@ -5496,7 +5496,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5543,7 +5543,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5590,7 +5590,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5640,7 +5640,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5690,7 +5690,7 @@
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R81">
         <v>28</v>
@@ -5743,7 +5743,7 @@
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R82">
         <v>13</v>
@@ -5796,7 +5796,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5843,7 +5843,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5890,7 +5890,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -5937,7 +5937,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -5984,7 +5984,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6031,7 +6031,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6078,7 +6078,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6125,7 +6125,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6172,7 +6172,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6219,7 +6219,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6313,7 +6313,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6363,7 +6363,7 @@
         <v>1</v>
       </c>
       <c r="Q95">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R95">
         <v>7</v>
@@ -6416,7 +6416,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6466,7 +6466,7 @@
         <v>1</v>
       </c>
       <c r="Q97">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R97">
         <v>22</v>
@@ -6519,7 +6519,7 @@
         <v>1</v>
       </c>
       <c r="Q98">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R98">
         <v>18</v>
@@ -6572,7 +6572,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6619,7 +6619,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6666,7 +6666,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6716,7 +6716,7 @@
         <v>1</v>
       </c>
       <c r="Q102">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R102">
         <v>20</v>
@@ -6766,7 +6766,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6816,7 +6816,7 @@
         <v>1</v>
       </c>
       <c r="Q104">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R104">
         <v>4</v>
@@ -6866,7 +6866,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -6916,7 +6916,7 @@
         <v>1</v>
       </c>
       <c r="Q106">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R106">
         <v>16</v>
@@ -6966,7 +6966,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7016,7 +7016,7 @@
         <v>1</v>
       </c>
       <c r="Q108">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R108">
         <v>24</v>
@@ -7066,7 +7066,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7113,7 +7113,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7160,7 +7160,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7207,7 +7207,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7254,7 +7254,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7301,7 +7301,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7348,7 +7348,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7395,7 +7395,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7442,7 +7442,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7492,7 +7492,7 @@
         <v>1</v>
       </c>
       <c r="Q118">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R118">
         <v>14</v>
@@ -7536,10 +7536,10 @@
         <v>1</v>
       </c>
       <c r="P119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q119">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7586,7 +7586,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7633,7 +7633,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7680,7 +7680,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7727,7 +7727,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7774,7 +7774,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7821,7 +7821,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -7862,10 +7862,10 @@
         <v>1</v>
       </c>
       <c r="P126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q126">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -7915,7 +7915,7 @@
         <v>1</v>
       </c>
       <c r="Q127">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R127">
         <v>18</v>
@@ -7968,7 +7968,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8015,7 +8015,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8065,7 +8065,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8112,7 +8112,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8162,7 +8162,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8212,7 +8212,7 @@
         <v>1</v>
       </c>
       <c r="Q133">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R133">
         <v>46</v>
@@ -8265,7 +8265,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8359,7 +8359,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8409,7 +8409,7 @@
         <v>1</v>
       </c>
       <c r="Q137">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R137">
         <v>22</v>
@@ -8459,7 +8459,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8506,7 +8506,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8553,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8600,7 +8600,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8647,7 +8647,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8697,7 +8697,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8747,7 +8747,7 @@
         <v>1</v>
       </c>
       <c r="Q144">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R144">
         <v>10</v>
@@ -8800,7 +8800,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -8850,7 +8850,7 @@
         <v>1</v>
       </c>
       <c r="Q146">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R146">
         <v>7</v>
@@ -8903,7 +8903,7 @@
         <v>1</v>
       </c>
       <c r="Q147">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R147">
         <v>10</v>
@@ -8953,7 +8953,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9047,7 +9047,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9097,7 +9097,7 @@
         <v>1</v>
       </c>
       <c r="Q151">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R151">
         <v>30</v>
@@ -9150,7 +9150,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9200,7 +9200,7 @@
         <v>1</v>
       </c>
       <c r="Q153">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R153">
         <v>20</v>
@@ -9253,7 +9253,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9303,7 +9303,7 @@
         <v>1</v>
       </c>
       <c r="Q155">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R155">
         <v>8</v>
@@ -9353,7 +9353,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9403,7 +9403,7 @@
         <v>1</v>
       </c>
       <c r="Q157">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R157">
         <v>9</v>
@@ -9456,7 +9456,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9506,7 +9506,7 @@
         <v>1</v>
       </c>
       <c r="Q159">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R159">
         <v>20</v>
@@ -9559,7 +9559,7 @@
         <v>1</v>
       </c>
       <c r="Q160">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R160">
         <v>28</v>
@@ -9609,7 +9609,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9709,7 +9709,7 @@
         <v>1</v>
       </c>
       <c r="Q163">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R163">
         <v>5</v>
@@ -9759,7 +9759,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9803,7 +9803,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9850,7 +9850,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -9897,7 +9897,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -9944,7 +9944,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -9991,7 +9991,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10038,7 +10038,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10085,7 +10085,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10135,7 +10135,7 @@
         <v>1</v>
       </c>
       <c r="Q172">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R172">
         <v>25</v>
@@ -10188,7 +10188,7 @@
         <v>1</v>
       </c>
       <c r="Q173">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R173">
         <v>23</v>
@@ -10241,7 +10241,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10291,7 +10291,7 @@
         <v>1</v>
       </c>
       <c r="Q175">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R175">
         <v>17</v>
@@ -10344,7 +10344,7 @@
         <v>1</v>
       </c>
       <c r="Q176">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R176">
         <v>23</v>
@@ -10397,7 +10397,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10447,7 +10447,7 @@
         <v>1</v>
       </c>
       <c r="Q178">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R178">
         <v>19</v>
@@ -10497,7 +10497,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10541,7 +10541,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10588,7 +10588,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10635,7 +10635,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10729,7 +10729,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10779,7 +10779,7 @@
         <v>1</v>
       </c>
       <c r="Q185">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R185">
         <v>14</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -10879,7 +10879,7 @@
         <v>1</v>
       </c>
       <c r="Q187">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R187">
         <v>22</v>
@@ -10929,7 +10929,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -10979,7 +10979,7 @@
         <v>1</v>
       </c>
       <c r="Q189">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R189">
         <v>34</v>
@@ -11032,7 +11032,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11079,7 +11079,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11129,7 +11129,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11179,7 +11179,7 @@
         <v>1</v>
       </c>
       <c r="Q193">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R193">
         <v>14</v>
@@ -11232,7 +11232,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11282,7 +11282,7 @@
         <v>1</v>
       </c>
       <c r="Q195">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R195">
         <v>7</v>
@@ -11332,7 +11332,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11379,7 +11379,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11426,7 +11426,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11473,7 +11473,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11520,7 +11520,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11567,7 +11567,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11614,7 +11614,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -11661,7 +11661,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11714,7 +11714,7 @@
         <v>1</v>
       </c>
       <c r="Q204">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R204">
         <v>4</v>
@@ -11764,7 +11764,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11811,7 +11811,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -11858,7 +11858,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -11905,7 +11905,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -11952,7 +11952,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -11999,7 +11999,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12046,7 +12046,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12093,7 +12093,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12140,7 +12140,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12190,7 +12190,7 @@
         <v>1</v>
       </c>
       <c r="Q214">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R214">
         <v>22</v>
@@ -12240,7 +12240,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12287,7 +12287,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12334,7 +12334,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12381,7 +12381,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12431,7 +12431,7 @@
         <v>1</v>
       </c>
       <c r="Q219">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R219">
         <v>34</v>
@@ -12481,7 +12481,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12531,7 +12531,7 @@
         <v>1</v>
       </c>
       <c r="Q221">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R221">
         <v>12</v>
@@ -12584,7 +12584,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12634,7 +12634,7 @@
         <v>1</v>
       </c>
       <c r="Q223">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R223">
         <v>12</v>
@@ -12684,7 +12684,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12728,7 +12728,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12775,7 +12775,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12822,7 +12822,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -12869,7 +12869,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -12916,7 +12916,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -12963,7 +12963,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13013,7 +13013,7 @@
         <v>1</v>
       </c>
       <c r="Q231">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R231">
         <v>21</v>
@@ -13063,7 +13063,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13110,7 +13110,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13160,7 +13160,7 @@
         <v>1</v>
       </c>
       <c r="Q234">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R234">
         <v>10</v>
@@ -13210,7 +13210,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13260,7 +13260,7 @@
         <v>1</v>
       </c>
       <c r="Q236">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R236">
         <v>19</v>
@@ -13310,7 +13310,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13360,7 +13360,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13410,7 +13410,7 @@
         <v>1</v>
       </c>
       <c r="Q239">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R239">
         <v>25</v>
@@ -13460,7 +13460,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13507,7 +13507,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13554,7 +13554,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13601,7 +13601,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13648,7 +13648,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13695,7 +13695,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13742,7 +13742,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13789,7 +13789,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -13836,7 +13836,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -13883,7 +13883,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -13930,7 +13930,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -13980,7 +13980,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14030,7 +14030,7 @@
         <v>1</v>
       </c>
       <c r="Q252">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R252">
         <v>0</v>
@@ -14077,7 +14077,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14124,7 +14124,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14171,7 +14171,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14218,7 +14218,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14265,7 +14265,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14312,7 +14312,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14359,7 +14359,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14406,7 +14406,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14453,7 +14453,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14500,7 +14500,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14550,7 +14550,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14600,7 +14600,7 @@
         <v>1</v>
       </c>
       <c r="Q264">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R264">
         <v>8</v>
@@ -14644,10 +14644,10 @@
         <v>1</v>
       </c>
       <c r="P265" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q265">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14694,7 +14694,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14741,7 +14741,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -14788,7 +14788,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -14835,7 +14835,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -14882,7 +14882,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -14929,7 +14929,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -14976,7 +14976,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15023,7 +15023,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15070,7 +15070,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15117,7 +15117,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15164,7 +15164,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15211,7 +15211,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15252,10 +15252,10 @@
         <v>1</v>
       </c>
       <c r="P278" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q278">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15305,7 +15305,7 @@
         <v>1</v>
       </c>
       <c r="Q279">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="R279">
         <v>19</v>
@@ -15358,7 +15358,7 @@
         <v>1</v>
       </c>
       <c r="Q280">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="R280">
         <v>24</v>
@@ -15408,7 +15408,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15458,7 +15458,7 @@
         <v>1</v>
       </c>
       <c r="Q282">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="R282">
         <v>7</v>
@@ -15508,7 +15508,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15558,7 +15558,7 @@
         <v>1</v>
       </c>
       <c r="Q284">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="R284">
         <v>27</v>
@@ -15611,7 +15611,7 @@
         <v>1</v>
       </c>
       <c r="Q285">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="R285">
         <v>23</v>
@@ -15661,7 +15661,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15711,7 +15711,7 @@
         <v>1</v>
       </c>
       <c r="Q287">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R287">
         <v>12</v>
@@ -15764,7 +15764,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -15814,7 +15814,7 @@
         <v>1</v>
       </c>
       <c r="Q289">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R289">
         <v>8</v>
@@ -15867,7 +15867,7 @@
         <v>1</v>
       </c>
       <c r="Q290">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R290">
         <v>38</v>
@@ -15920,7 +15920,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -15970,7 +15970,7 @@
         <v>1</v>
       </c>
       <c r="Q292">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R292">
         <v>18</v>
@@ -16023,7 +16023,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16073,7 +16073,7 @@
         <v>1</v>
       </c>
       <c r="Q294">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R294">
         <v>7</v>
@@ -16123,7 +16123,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16173,7 +16173,7 @@
         <v>1</v>
       </c>
       <c r="Q296">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R296">
         <v>14</v>
@@ -16226,7 +16226,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16276,7 +16276,7 @@
         <v>1</v>
       </c>
       <c r="Q298">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R298">
         <v>7</v>
@@ -16329,7 +16329,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16379,7 +16379,7 @@
         <v>1</v>
       </c>
       <c r="Q300">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R300">
         <v>16</v>
@@ -16432,7 +16432,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16482,7 +16482,7 @@
         <v>1</v>
       </c>
       <c r="Q302">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R302">
         <v>24</v>
@@ -16535,7 +16535,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16582,7 +16582,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16629,7 +16629,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16676,7 +16676,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16723,7 +16723,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -16770,7 +16770,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -16817,7 +16817,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -16864,7 +16864,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -16911,7 +16911,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -16958,7 +16958,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17005,7 +17005,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17055,7 +17055,7 @@
         <v>1</v>
       </c>
       <c r="Q314">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R314">
         <v>39</v>
@@ -17105,7 +17105,7 @@
         <v>0</v>
       </c>
       <c r="Q315">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -17149,7 +17149,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17199,7 +17199,7 @@
         <v>1</v>
       </c>
       <c r="Q317">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R317">
         <v>20</v>
@@ -17252,7 +17252,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17302,7 +17302,7 @@
         <v>1</v>
       </c>
       <c r="Q319">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R319">
         <v>20</v>
@@ -17355,7 +17355,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17405,7 +17405,7 @@
         <v>1</v>
       </c>
       <c r="Q321">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R321">
         <v>20</v>
@@ -17455,7 +17455,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17505,7 +17505,7 @@
         <v>1</v>
       </c>
       <c r="Q323">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R323">
         <v>5</v>
@@ -17555,7 +17555,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17605,7 +17605,7 @@
         <v>1</v>
       </c>
       <c r="Q325">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R325">
         <v>8</v>
@@ -17658,7 +17658,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17705,7 +17705,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -17752,7 +17752,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -17799,7 +17799,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -17846,7 +17846,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -17893,7 +17893,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -17940,7 +17940,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -17987,7 +17987,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18037,7 +18037,7 @@
         <v>1</v>
       </c>
       <c r="Q334">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R334">
         <v>9</v>
@@ -18090,7 +18090,7 @@
         <v>1</v>
       </c>
       <c r="Q335">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R335">
         <v>17</v>
@@ -18140,7 +18140,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18190,7 +18190,7 @@
         <v>1</v>
       </c>
       <c r="Q337">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R337">
         <v>3</v>
@@ -18240,7 +18240,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18287,7 +18287,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18337,7 +18337,7 @@
         <v>1</v>
       </c>
       <c r="Q340">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R340">
         <v>11</v>
@@ -18390,7 +18390,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18437,7 +18437,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18490,7 +18490,7 @@
         <v>1</v>
       </c>
       <c r="Q343">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R343">
         <v>11</v>
@@ -18540,7 +18540,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18587,7 +18587,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18634,7 +18634,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18684,7 +18684,7 @@
         <v>1</v>
       </c>
       <c r="Q347">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R347">
         <v>19</v>
@@ -18734,7 +18734,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18784,7 +18784,7 @@
         <v>1</v>
       </c>
       <c r="Q349">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R349">
         <v>24</v>
@@ -18834,7 +18834,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -18884,7 +18884,7 @@
         <v>1</v>
       </c>
       <c r="Q351">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R351">
         <v>17</v>
@@ -18934,7 +18934,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -18984,7 +18984,7 @@
         <v>1</v>
       </c>
       <c r="Q353">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R353">
         <v>28</v>
@@ -19034,7 +19034,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19084,7 +19084,7 @@
         <v>1</v>
       </c>
       <c r="Q355">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R355">
         <v>10</v>
@@ -19137,7 +19137,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19187,7 +19187,7 @@
         <v>1</v>
       </c>
       <c r="Q357">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R357">
         <v>4</v>
@@ -19237,7 +19237,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19287,7 +19287,7 @@
         <v>1</v>
       </c>
       <c r="Q359">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R359">
         <v>16</v>
@@ -19340,7 +19340,7 @@
         <v>1</v>
       </c>
       <c r="Q360">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R360">
         <v>22</v>
@@ -19393,7 +19393,7 @@
         <v>0</v>
       </c>
       <c r="Q361">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19440,7 +19440,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19490,7 +19490,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19540,7 +19540,7 @@
         <v>1</v>
       </c>
       <c r="Q364">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R364">
         <v>17</v>
@@ -19593,7 +19593,7 @@
         <v>1</v>
       </c>
       <c r="Q365">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R365">
         <v>11</v>
@@ -19643,7 +19643,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19693,7 +19693,7 @@
         <v>1</v>
       </c>
       <c r="Q367">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R367">
         <v>18</v>
@@ -19743,7 +19743,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19784,10 +19784,10 @@
         <v>1</v>
       </c>
       <c r="P369" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q369">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -19834,7 +19834,7 @@
         <v>0</v>
       </c>
       <c r="Q370">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -19881,7 +19881,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -19928,7 +19928,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -19975,7 +19975,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20022,7 +20022,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20069,7 +20069,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20110,10 +20110,10 @@
         <v>1</v>
       </c>
       <c r="P376" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q376">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20163,7 +20163,7 @@
         <v>1</v>
       </c>
       <c r="Q377">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="R377">
         <v>13</v>
@@ -20213,7 +20213,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20263,7 +20263,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20313,7 +20313,7 @@
         <v>1</v>
       </c>
       <c r="Q380">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="R380">
         <v>24</v>
@@ -20363,7 +20363,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20413,7 +20413,7 @@
         <v>1</v>
       </c>
       <c r="Q382">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="R382">
         <v>11</v>
@@ -20463,7 +20463,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20510,7 +20510,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20560,7 +20560,7 @@
         <v>1</v>
       </c>
       <c r="Q385">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="R385">
         <v>0</v>
@@ -20610,7 +20610,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20657,7 +20657,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20704,7 +20704,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20751,7 +20751,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -20798,7 +20798,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -20845,7 +20845,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -20892,7 +20892,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -20939,7 +20939,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -20989,7 +20989,7 @@
         <v>1</v>
       </c>
       <c r="Q394">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="R394">
         <v>30</v>
@@ -21039,7 +21039,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21089,7 +21089,7 @@
         <v>1</v>
       </c>
       <c r="Q396">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="R396">
         <v>21</v>
@@ -21139,7 +21139,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21186,7 +21186,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21233,7 +21233,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21280,7 +21280,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21327,7 +21327,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21377,7 +21377,7 @@
         <v>1</v>
       </c>
       <c r="Q402">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="R402">
         <v>0</v>
@@ -21430,7 +21430,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21480,7 +21480,7 @@
         <v>1</v>
       </c>
       <c r="Q404">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="R404">
         <v>8</v>
@@ -21530,7 +21530,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21580,7 +21580,7 @@
         <v>1</v>
       </c>
       <c r="Q406">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="R406">
         <v>5</v>
@@ -21630,7 +21630,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21680,7 +21680,7 @@
         <v>1</v>
       </c>
       <c r="Q408">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="R408">
         <v>20</v>
@@ -21733,7 +21733,7 @@
         <v>1</v>
       </c>
       <c r="Q409">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R409">
         <v>18</v>
@@ -21786,7 +21786,7 @@
         <v>1</v>
       </c>
       <c r="Q410">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R410">
         <v>23</v>
@@ -21836,7 +21836,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -21883,7 +21883,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -21930,7 +21930,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -21977,7 +21977,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22024,7 +22024,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22071,7 +22071,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22121,7 +22121,7 @@
         <v>1</v>
       </c>
       <c r="Q417">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R417">
         <v>16</v>
@@ -22168,7 +22168,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22215,7 +22215,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22262,7 +22262,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22309,7 +22309,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22356,7 +22356,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22403,7 +22403,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22450,7 +22450,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22497,7 +22497,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22547,7 +22547,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22597,7 +22597,7 @@
         <v>1</v>
       </c>
       <c r="Q427">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R427">
         <v>41</v>
@@ -22647,7 +22647,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22694,7 +22694,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22741,7 +22741,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -22791,7 +22791,7 @@
         <v>1</v>
       </c>
       <c r="Q431">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R431">
         <v>18</v>
@@ -22841,7 +22841,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -22888,7 +22888,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -22935,7 +22935,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -22985,7 +22985,7 @@
         <v>1</v>
       </c>
       <c r="Q435">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R435">
         <v>4</v>
@@ -23038,7 +23038,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23085,7 +23085,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23132,7 +23132,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23179,7 +23179,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23226,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23323,7 +23323,7 @@
         <v>1</v>
       </c>
       <c r="Q442">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R442">
         <v>1</v>
@@ -23376,7 +23376,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23423,7 +23423,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23517,7 +23517,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23567,7 +23567,7 @@
         <v>1</v>
       </c>
       <c r="Q447">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R447">
         <v>20</v>
@@ -23617,7 +23617,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23667,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -23717,7 +23717,7 @@
         <v>1</v>
       </c>
       <c r="Q450">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R450">
         <v>20</v>
@@ -23767,7 +23767,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -23814,7 +23814,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -23864,7 +23864,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -23911,7 +23911,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24005,7 +24005,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24052,7 +24052,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24099,7 +24099,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24149,7 +24149,7 @@
         <v>1</v>
       </c>
       <c r="Q459">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R459">
         <v>21</v>
@@ -24202,7 +24202,7 @@
         <v>1</v>
       </c>
       <c r="Q460">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R460">
         <v>20</v>
@@ -24252,7 +24252,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24299,7 +24299,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24349,7 +24349,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24399,7 +24399,7 @@
         <v>1</v>
       </c>
       <c r="Q464">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R464">
         <v>29</v>
@@ -24452,7 +24452,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24502,7 +24502,7 @@
         <v>1</v>
       </c>
       <c r="Q466">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R466">
         <v>8</v>
@@ -24555,7 +24555,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24602,7 +24602,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -24696,7 +24696,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -24743,7 +24743,7 @@
         <v>0</v>
       </c>
       <c r="Q471">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -24790,7 +24790,7 @@
         <v>0</v>
       </c>
       <c r="Q472">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="473" spans="1:18">
@@ -24840,7 +24840,7 @@
         <v>1</v>
       </c>
       <c r="Q473">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R473">
         <v>8</v>
@@ -24893,7 +24893,7 @@
         <v>1</v>
       </c>
       <c r="Q474">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R474">
         <v>14</v>
@@ -24943,7 +24943,7 @@
         <v>0</v>
       </c>
       <c r="Q475">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="476" spans="1:18">
@@ -24993,7 +24993,7 @@
         <v>1</v>
       </c>
       <c r="Q476">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R476">
         <v>22</v>
@@ -25046,7 +25046,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25096,7 +25096,7 @@
         <v>1</v>
       </c>
       <c r="Q478">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R478">
         <v>11</v>
@@ -25149,7 +25149,7 @@
         <v>0</v>
       </c>
       <c r="Q479">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25199,7 +25199,7 @@
         <v>1</v>
       </c>
       <c r="Q480">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R480">
         <v>0</v>
@@ -25249,7 +25249,7 @@
         <v>0</v>
       </c>
       <c r="Q481">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="482" spans="1:18">
@@ -25296,7 +25296,7 @@
         <v>0</v>
       </c>
       <c r="Q482">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="483" spans="1:18">
@@ -25343,7 +25343,7 @@
         <v>0</v>
       </c>
       <c r="Q483">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -25393,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="Q484">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="485" spans="1:18">
@@ -25443,7 +25443,7 @@
         <v>1</v>
       </c>
       <c r="Q485">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R485">
         <v>24</v>
@@ -25493,7 +25493,7 @@
         <v>0</v>
       </c>
       <c r="Q486">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="487" spans="1:18">
@@ -25540,7 +25540,7 @@
         <v>0</v>
       </c>
       <c r="Q487">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="488" spans="1:18">
@@ -25587,7 +25587,7 @@
         <v>0</v>
       </c>
       <c r="Q488">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="489" spans="1:18">
@@ -25634,7 +25634,7 @@
         <v>0</v>
       </c>
       <c r="Q489">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="490" spans="1:18">
@@ -25681,7 +25681,7 @@
         <v>0</v>
       </c>
       <c r="Q490">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="491" spans="1:18">
@@ -25731,7 +25731,7 @@
         <v>1</v>
       </c>
       <c r="Q491">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R491">
         <v>5</v>
@@ -25781,7 +25781,7 @@
         <v>0</v>
       </c>
       <c r="Q492">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="493" spans="1:18">
@@ -25828,7 +25828,7 @@
         <v>0</v>
       </c>
       <c r="Q493">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="494" spans="1:18">
@@ -25875,7 +25875,7 @@
         <v>0</v>
       </c>
       <c r="Q494">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="495" spans="1:18">
@@ -25922,7 +25922,7 @@
         <v>0</v>
       </c>
       <c r="Q495">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="496" spans="1:18">
@@ -25969,7 +25969,7 @@
         <v>0</v>
       </c>
       <c r="Q496">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="497" spans="1:18">
@@ -26019,7 +26019,7 @@
         <v>1</v>
       </c>
       <c r="Q497">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R497">
         <v>12</v>
@@ -26072,7 +26072,7 @@
         <v>1</v>
       </c>
       <c r="Q498">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R498">
         <v>19</v>
@@ -26122,7 +26122,7 @@
         <v>0</v>
       </c>
       <c r="Q499">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="500" spans="1:18">
@@ -26169,7 +26169,7 @@
         <v>0</v>
       </c>
       <c r="Q500">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="501" spans="1:18">
@@ -26216,7 +26216,7 @@
         <v>0</v>
       </c>
       <c r="Q501">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="502" spans="1:18">
@@ -26263,7 +26263,7 @@
         <v>0</v>
       </c>
       <c r="Q502">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="503" spans="1:18">
@@ -26313,7 +26313,7 @@
         <v>1</v>
       </c>
       <c r="Q503">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R503">
         <v>0</v>
@@ -26360,7 +26360,7 @@
         <v>0</v>
       </c>
       <c r="Q504">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="505" spans="1:18">
@@ -26410,7 +26410,7 @@
         <v>1</v>
       </c>
       <c r="Q505">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R505">
         <v>4</v>
@@ -26460,7 +26460,7 @@
         <v>0</v>
       </c>
       <c r="Q506">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="507" spans="1:18">
@@ -26507,7 +26507,7 @@
         <v>0</v>
       </c>
       <c r="Q507">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="508" spans="1:18">
@@ -26557,7 +26557,7 @@
         <v>1</v>
       </c>
       <c r="Q508">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R508">
         <v>20</v>
@@ -26607,7 +26607,7 @@
         <v>0</v>
       </c>
       <c r="Q509">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="510" spans="1:18">
@@ -26657,7 +26657,7 @@
         <v>1</v>
       </c>
       <c r="Q510">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R510">
         <v>16</v>
@@ -26710,7 +26710,7 @@
         <v>1</v>
       </c>
       <c r="Q511">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R511">
         <v>9</v>
@@ -26760,7 +26760,7 @@
         <v>0</v>
       </c>
       <c r="Q512">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="513" spans="1:18">
@@ -26807,7 +26807,7 @@
         <v>0</v>
       </c>
       <c r="Q513">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="514" spans="1:18">
@@ -26854,7 +26854,7 @@
         <v>0</v>
       </c>
       <c r="Q514">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="515" spans="1:18">
@@ -26901,7 +26901,7 @@
         <v>0</v>
       </c>
       <c r="Q515">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="516" spans="1:18">
@@ -26951,7 +26951,7 @@
         <v>1</v>
       </c>
       <c r="Q516">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R516">
         <v>23</v>
@@ -27004,7 +27004,7 @@
         <v>1</v>
       </c>
       <c r="Q517">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R517">
         <v>17</v>
@@ -27054,7 +27054,7 @@
         <v>0</v>
       </c>
       <c r="Q518">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="519" spans="1:18">
@@ -27101,7 +27101,7 @@
         <v>0</v>
       </c>
       <c r="Q519">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="520" spans="1:18">
@@ -27148,7 +27148,7 @@
         <v>0</v>
       </c>
       <c r="Q520">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="521" spans="1:18">
@@ -27198,7 +27198,7 @@
         <v>1</v>
       </c>
       <c r="Q521">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R521">
         <v>0</v>
@@ -27251,7 +27251,7 @@
         <v>0</v>
       </c>
       <c r="Q522">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="523" spans="1:18">
@@ -27298,7 +27298,7 @@
         <v>0</v>
       </c>
       <c r="Q523">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="524" spans="1:18">
@@ -27345,7 +27345,7 @@
         <v>0</v>
       </c>
       <c r="Q524">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="525" spans="1:18">
@@ -27392,7 +27392,7 @@
         <v>0</v>
       </c>
       <c r="Q525">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="526" spans="1:18">
@@ -27442,7 +27442,7 @@
         <v>1</v>
       </c>
       <c r="Q526">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R526">
         <v>12</v>
@@ -27489,7 +27489,7 @@
         <v>0</v>
       </c>
       <c r="Q527">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="528" spans="1:18">
@@ -27539,7 +27539,7 @@
         <v>1</v>
       </c>
       <c r="Q528">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R528">
         <v>8</v>
@@ -27589,7 +27589,7 @@
         <v>0</v>
       </c>
       <c r="Q529">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="530" spans="1:18">
@@ -27636,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="Q530">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="531" spans="1:18">
@@ -27683,7 +27683,7 @@
         <v>0</v>
       </c>
       <c r="Q531">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="532" spans="1:18">
@@ -27730,7 +27730,7 @@
         <v>0</v>
       </c>
       <c r="Q532">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="533" spans="1:18">
@@ -27780,7 +27780,7 @@
         <v>1</v>
       </c>
       <c r="Q533">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R533">
         <v>0</v>
@@ -27827,7 +27827,7 @@
         <v>0</v>
       </c>
       <c r="Q534">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="535" spans="1:18">
@@ -27877,7 +27877,7 @@
         <v>1</v>
       </c>
       <c r="Q535">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R535">
         <v>1</v>
@@ -27930,7 +27930,7 @@
         <v>1</v>
       </c>
       <c r="Q536">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R536">
         <v>0</v>
@@ -27974,10 +27974,10 @@
         <v>1</v>
       </c>
       <c r="P537" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q537">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="538" spans="1:18">
@@ -28018,7 +28018,7 @@
         <v>0</v>
       </c>
       <c r="Q538">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
